--- a/data.xlsx
+++ b/data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ybai\Desktop\Project\snowpack\SnowpackDashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{646D6003-6EFB-468A-8C8C-B4B669A88DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F611242-9E55-420C-9A20-2F4731B0C07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -34,51 +34,51 @@
     <t>Rio Chama Basin_Percent of Median</t>
   </si>
   <si>
-    <t> Upper Rio Grande Basin_Snow Depth</t>
-  </si>
-  <si>
     <t>Upper Rio Grande Basin_Medium Snow Depth</t>
   </si>
   <si>
     <t>Upper Rio Grande Basin_Percent of Median</t>
   </si>
   <si>
-    <t xml:space="preserve">  Sangre Decristo Basin_Snow Depth</t>
-  </si>
-  <si>
-    <t>Sangre Decristo Basin_Medium Snow Depth</t>
-  </si>
-  <si>
-    <t>Sangre Decristo Basin_Percent of Median</t>
-  </si>
-  <si>
-    <t> Jemez River Basin_Snow Depth</t>
-  </si>
-  <si>
-    <t>Jemez River Basin_Medium Snow Depth</t>
-  </si>
-  <si>
     <t>Jemez River Basin_Percent of Median</t>
-  </si>
-  <si>
-    <t> San Juan River Basin_Snow Depth</t>
   </si>
   <si>
     <t>San Juan River Basin_Medium Snow Depth</t>
   </si>
   <si>
-    <t>San Juan River Basin_Percent of Median</t>
+    <t>*</t>
   </si>
   <si>
-    <t>*</t>
+    <t>Sangre De Cristo Basin_Medium Snow Depth</t>
+  </si>
+  <si>
+    <t>San Juan River Basin_Snow Depth</t>
+  </si>
+  <si>
+    <t>SangreDeCristo Basin_Snow Depth</t>
+  </si>
+  <si>
+    <t>JemezRiverBasin_Medium Snow Depth</t>
+  </si>
+  <si>
+    <t>JemezRiverBasin_SnowDepth</t>
+  </si>
+  <si>
+    <t>SanJuanRiverBasin_PercentofMedian</t>
+  </si>
+  <si>
+    <t>UpperRioGrandeBasin_SnowDepth</t>
+  </si>
+  <si>
+    <t>SangreDeCristoBasin_PercentofMedian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -559,7 +559,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -934,11 +934,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,40 +960,40 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -8604,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="M175" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N175">
         <v>12.6</v>
@@ -19991,5 +19991,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ybai\Desktop\Project\snowpack\SnowpackDashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F611242-9E55-420C-9A20-2F4731B0C07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648FE7C0-9001-4660-9F95-9260C28A47B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +214,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -557,9 +562,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -935,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P403"/>
+  <dimension ref="A1:P411"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="I410" sqref="I410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19989,6 +20003,226 @@
         <v>100.6</v>
       </c>
     </row>
+    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B404" s="2">
+        <v>14.039999999999997</v>
+      </c>
+      <c r="C404" s="2">
+        <v>14</v>
+      </c>
+      <c r="D404" s="2">
+        <v>100.28571428571426</v>
+      </c>
+      <c r="E404" s="2">
+        <v>15.069230769230767</v>
+      </c>
+      <c r="F404" s="2">
+        <v>15.809090909090905</v>
+      </c>
+      <c r="G404" s="2">
+        <v>95.320033617905978</v>
+      </c>
+      <c r="H404" s="2">
+        <v>10.094117647058825</v>
+      </c>
+      <c r="I404" s="2">
+        <v>7.8124999999999991</v>
+      </c>
+      <c r="J404" s="2">
+        <v>129.20470588235298</v>
+      </c>
+      <c r="K404" s="2">
+        <v>8.5749999999999993</v>
+      </c>
+      <c r="L404" s="2">
+        <v>1.9666666666666668</v>
+      </c>
+      <c r="M404" s="2">
+        <v>436.01694915254228</v>
+      </c>
+      <c r="N404" s="2">
+        <v>18.983333333333331</v>
+      </c>
+      <c r="O404" s="2">
+        <v>18.253846153846151</v>
+      </c>
+      <c r="P404" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>45397</v>
+      </c>
+      <c r="B405" s="2">
+        <v>11.26</v>
+      </c>
+      <c r="C405" s="2">
+        <v>11.95</v>
+      </c>
+      <c r="D405" s="2">
+        <v>94.225941422594147</v>
+      </c>
+      <c r="E405" s="2">
+        <v>13.484615384615383</v>
+      </c>
+      <c r="F405" s="2">
+        <v>15.145454545454545</v>
+      </c>
+      <c r="G405" s="2">
+        <v>89.034075168528943</v>
+      </c>
+      <c r="H405" s="2">
+        <v>8.6812499999999986</v>
+      </c>
+      <c r="I405" s="2">
+        <v>7.6437499999999998</v>
+      </c>
+      <c r="J405" s="2">
+        <v>113.57318070318887</v>
+      </c>
+      <c r="K405" s="2">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="L405" s="2">
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="M405" s="2">
+        <v>454.6875</v>
+      </c>
+      <c r="N405" s="2">
+        <v>17.658333333333335</v>
+      </c>
+      <c r="O405" s="2">
+        <v>17.738461538461539</v>
+      </c>
+      <c r="P405" s="2">
+        <v>96.454545454545453</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B406" s="3"/>
+      <c r="C406" s="3"/>
+      <c r="D406" s="3"/>
+      <c r="E406" s="3"/>
+      <c r="F406" s="3"/>
+      <c r="G406" s="3"/>
+      <c r="H406" s="3"/>
+      <c r="I406" s="3"/>
+      <c r="J406" s="3"/>
+      <c r="K406" s="3"/>
+      <c r="L406" s="3"/>
+      <c r="M406" s="4"/>
+      <c r="N406" s="3"/>
+      <c r="O406" s="3"/>
+      <c r="P406" s="3"/>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B407" s="3"/>
+      <c r="C407" s="3"/>
+      <c r="D407" s="3"/>
+      <c r="E407" s="3"/>
+      <c r="F407" s="3"/>
+      <c r="G407" s="3"/>
+      <c r="H407" s="3"/>
+      <c r="I407" s="3"/>
+      <c r="J407" s="3"/>
+      <c r="K407" s="3"/>
+      <c r="L407" s="3"/>
+      <c r="M407" s="3"/>
+      <c r="N407" s="3"/>
+      <c r="O407" s="3"/>
+      <c r="P407" s="3"/>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B408" s="3"/>
+      <c r="C408" s="3"/>
+      <c r="D408" s="3"/>
+      <c r="E408" s="3"/>
+      <c r="F408" s="3"/>
+      <c r="G408" s="3"/>
+      <c r="H408" s="3"/>
+      <c r="I408" s="3"/>
+      <c r="J408" s="3"/>
+      <c r="K408" s="3"/>
+      <c r="L408" s="3"/>
+      <c r="M408" s="3"/>
+      <c r="N408" s="3"/>
+      <c r="O408" s="3"/>
+      <c r="P408" s="3"/>
+    </row>
+    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B409" s="3"/>
+      <c r="C409" s="3"/>
+      <c r="D409" s="3"/>
+      <c r="E409" s="3"/>
+      <c r="F409" s="3"/>
+      <c r="G409" s="3"/>
+      <c r="H409" s="3"/>
+      <c r="I409" s="3"/>
+      <c r="J409" s="3"/>
+      <c r="K409" s="3"/>
+      <c r="L409" s="3"/>
+      <c r="M409" s="3"/>
+      <c r="N409" s="3"/>
+      <c r="O409" s="3"/>
+      <c r="P409" s="3"/>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B410" s="3"/>
+      <c r="C410" s="3"/>
+      <c r="D410" s="3"/>
+      <c r="E410" s="3"/>
+      <c r="F410" s="3"/>
+      <c r="G410" s="3"/>
+      <c r="H410" s="3"/>
+      <c r="I410" s="3"/>
+      <c r="J410" s="3"/>
+      <c r="K410" s="3"/>
+      <c r="L410" s="3"/>
+      <c r="M410" s="3"/>
+      <c r="N410" s="3"/>
+      <c r="O410" s="3"/>
+      <c r="P410" s="3"/>
+    </row>
+    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
+        <v>45439</v>
+      </c>
+      <c r="B411" s="3"/>
+      <c r="C411" s="3"/>
+      <c r="D411" s="3"/>
+      <c r="E411" s="3"/>
+      <c r="F411" s="3"/>
+      <c r="G411" s="3"/>
+      <c r="H411" s="3"/>
+      <c r="I411" s="3"/>
+      <c r="J411" s="3"/>
+      <c r="K411" s="3"/>
+      <c r="L411" s="3"/>
+      <c r="M411" s="3"/>
+      <c r="N411" s="3"/>
+      <c r="O411" s="3"/>
+      <c r="P411" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
